--- a/xlsx/汽车_intext.xlsx
+++ b/xlsx/汽车_intext.xlsx
@@ -29,7 +29,7 @@
     <t>自動駕駛汽車</t>
   </si>
   <si>
-    <t>政策_政策_美國_汽车</t>
+    <t>体育运动_体育运动_技术_汽车</t>
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Benz_Patent-Motorwagen_Nummer_1</t>
